--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FE8857A-DED5-4341-94F0-9527A5008A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0B5554-69A5-4FFA-9CA3-0CDA0362A2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s04_git_html/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20T%E1%BA%A1o%20trang%20CV%20c%C3%A1%20nh%C3%A2n.html</t>
+  </si>
+  <si>
+    <t>[Bài tập] Biến, kiểu dữ liệu và toán tử</t>
+  </si>
+  <si>
+    <t>[Bài tập] Ứng dụng chuyển đổi tiền tệ</t>
+  </si>
+  <si>
+    <t>[Bài tập] Ứng dụng máy tính</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s07_bien_toantu/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20Bi%E1%BA%BFn%2C%20ki%E1%BB%83u%20d%E1%BB%AF%20li%E1%BB%87u%20v%C3%A0%20to%C3%A1n%20t%E1%BB%AD.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s07_bien_toantu/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20%E1%BB%A8ng%20d%E1%BB%A5ng%20chuy%E1%BB%83n%20%C4%91%E1%BB%95i%20ti%E1%BB%81n%20t%E1%BB%87.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s07_bien_toantu/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20%E1%BB%A8ng%20d%E1%BB%A5ng%20m%C3%A1y%20t%C3%ADnh.html</t>
   </si>
 </sst>
 </file>
@@ -425,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -492,6 +510,30 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0B5554-69A5-4FFA-9CA3-0CDA0362A2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2732FC0-E6EC-4029-8EDD-FC771F0329D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s07_bien_toantu/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20%E1%BB%A8ng%20d%E1%BB%A5ng%20m%C3%A1y%20t%C3%ADnh.html</t>
+  </si>
+  <si>
+    <t>[Bài tập] Tính chỉ số cân nặng của cơ thể</t>
+  </si>
+  <si>
+    <t>[Bài tập] Câu lệnh switch-case</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20C%C3%A2u%20l%E1%BB%87nh%20switch-case.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20T%C3%ADnh%20ch%E1%BB%89%20s%E1%BB%91%20c%C3%A2n%20n%E1%BA%B7ng%20c%E1%BB%A7a%20c%C6%A1%20th%E1%BB%83.html</t>
   </si>
 </sst>
 </file>
@@ -443,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -534,6 +546,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2732FC0-E6EC-4029-8EDD-FC771F0329D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC112C32-F953-45CB-97F2-8503C35E1FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -104,6 +104,120 @@
   </si>
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20T%C3%ADnh%20ch%E1%BB%89%20s%E1%BB%91%20c%C3%A2n%20n%E1%BA%B7ng%20c%E1%BB%A7a%20c%C6%A1%20th%E1%BB%83.html</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 01 - Bài 1</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 01 - Bài 2</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 01 - Bài 3</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 01 - Bài 4</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 01 - Bài 5</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 01 - Bài 6</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 01 - Bài 7</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 02 - Bài 1</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 02 - Bài 2</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 02 - Bài 3</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 02 - Bài 4</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 02 - Bài 5</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 02 - Bài 6</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 02 - Bài 7</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 02 - Bài 8</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 02 - Bài 9</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 02 - Bài 10</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 02 - Bài 11</t>
+  </si>
+  <si>
+    <t>Luyện tập cấu trúc điều kiện 02 - Bài 12</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-1%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-2%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-3%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-4%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-5%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-6%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-7%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-8%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-9%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-10%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-11%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-12%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-13%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-14%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-15%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-16%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-19%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-18%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-17%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2002.html</t>
   </si>
 </sst>
 </file>
@@ -455,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -562,6 +676,158 @@
         <v>23</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC112C32-F953-45CB-97F2-8503C35E1FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15035506-D0F5-4FCA-ACA6-E2A500BCD6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s09_dieu_kien_2/%5BB%C3%A0i%20t%E1%BA%ADp%209-17%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20c%E1%BA%A5u%20tr%C3%BAc%20%C4%91i%E1%BB%81u%20ki%E1%BB%87n%2002.html</t>
+  </si>
+  <si>
+    <t>[Bài tập] Sinh bảng cửu chương</t>
+  </si>
+  <si>
+    <t>[Bài tập] Hiển thị các số nguyên tố đầu tiên</t>
   </si>
 </sst>
 </file>
@@ -569,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -828,6 +834,16 @@
         <v>59</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15035506-D0F5-4FCA-ACA6-E2A500BCD6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D927F5-EB52-4896-8512-3FC7FE914B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>[Bài tập] Hiển thị các số nguyên tố đầu tiên</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20Sinh%20b%E1%BA%A3ng%20c%E1%BB%ADu%20ch%C6%B0%C6%A1ng.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20Hi%E1%BB%83n%20th%E1%BB%8B%20c%C3%A1c%20s%E1%BB%91%20nguy%C3%AAn%20t%E1%BB%91%20%C4%91%E1%BA%A7u%20ti%C3%AAn.html</t>
   </si>
 </sst>
 </file>
@@ -577,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -838,10 +844,16 @@
       <c r="A37" t="s">
         <v>62</v>
       </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D927F5-EB52-4896-8512-3FC7FE914B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5A4547-4F53-4566-98BB-C6A38698616C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -230,6 +230,54 @@
   </si>
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20Hi%E1%BB%83n%20th%E1%BB%8B%20c%C3%A1c%20s%E1%BB%91%20nguy%C3%AAn%20t%E1%BB%91%20%C4%91%E1%BA%A7u%20ti%C3%AAn.html</t>
+  </si>
+  <si>
+    <t>Luyện tập vòng lặp 01 - Bài 01</t>
+  </si>
+  <si>
+    <t>Luyện tập vòng lặp 01 - Bài 02</t>
+  </si>
+  <si>
+    <t>Luyện tập vòng lặp 01 - Bài 03</t>
+  </si>
+  <si>
+    <t>Luyện tập vòng lặp 01 - Bài 04</t>
+  </si>
+  <si>
+    <t>Luyện tập vòng lặp 01 - Bài 05</t>
+  </si>
+  <si>
+    <t>Luyện tập vòng lặp 01 - Bài 06</t>
+  </si>
+  <si>
+    <t>Luyện tập vòng lặp 01 - Bài 07</t>
+  </si>
+  <si>
+    <t>Luyện tập vòng lặp 01 - Bài 08</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%201%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%202%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%203%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%204%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%205%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%206%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%207%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%208%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2001.html</t>
   </si>
 </sst>
 </file>
@@ -581,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -856,6 +904,70 @@
         <v>65</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5A4547-4F53-4566-98BB-C6A38698616C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFAECCA-EB65-4BF2-88A4-4D454624B093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -278,6 +278,36 @@
   </si>
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%208%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2001.html</t>
+  </si>
+  <si>
+    <t>Luyện tập vòng lặp 02 - Bài 01</t>
+  </si>
+  <si>
+    <t>Luyện tập vòng lặp 02 - Bài 02</t>
+  </si>
+  <si>
+    <t>Luyện tập vòng lặp 02 - Bài 03</t>
+  </si>
+  <si>
+    <t>Luyện tập vòng lặp 02 - Bài 04</t>
+  </si>
+  <si>
+    <t>Luyện tập vòng lặp 02 - Bài 05</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%201%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%202%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%203%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%204%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%205%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2002.html</t>
   </si>
 </sst>
 </file>
@@ -629,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -968,6 +998,46 @@
         <v>81</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFAECCA-EB65-4BF2-88A4-4D454624B093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FDE65F-E8AD-410C-B645-373F3DAB1C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -308,6 +308,75 @@
   </si>
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s11_vong%20lap%202/%5BB%C3%A0i%20t%E1%BA%ADp%205%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20v%C3%B2ng%20l%E1%BA%B7p%2002.html</t>
+  </si>
+  <si>
+    <t>[Bài tập] Sử dụng các hàm có sẵn của mảng</t>
+  </si>
+  <si>
+    <t>[Bài tập] Từ điển</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 01 - 01</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 01 - 02</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 01 - 03</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 01 - 04</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 01 - 05</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 01 - 06</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 01 - 07</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 01 - 08</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 01 - 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%201%5D%20S%E1%BB%AD%20d%E1%BB%A5ng%20c%C3%A1c%20h%C3%A0m%20c%C3%B3%20s%E1%BA%B5n%20c%E1%BB%A7a%20m%E1%BA%A3ng.html
+https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%202%5D%20S%E1%BB%AD%20d%E1%BB%A5ng%20c%C3%A1c%20h%C3%A0m%20c%C3%B3%20s%E1%BA%B5n%20c%E1%BB%A7a%20m%E1%BA%A3ng.html
+https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%203%5D%20S%E1%BB%AD%20d%E1%BB%A5ng%20c%C3%A1c%20h%C3%A0m%20c%C3%B3%20s%E1%BA%B5n%20c%E1%BB%A7a%20m%E1%BA%A3ng.html
+</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20T%E1%BB%AB%20%C4%91i%E1%BB%83n.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%201%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%202%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%203%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%204%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%205%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%206%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%207%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%208%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%209%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2001.html</t>
   </si>
 </sst>
 </file>
@@ -659,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1038,6 +1107,94 @@
         <v>91</v>
       </c>
     </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FDE65F-E8AD-410C-B645-373F3DAB1C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86615DD1-6FE8-428E-91E3-333D85E1BA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -377,6 +377,42 @@
   </si>
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%209%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%201%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2002.html</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 02 - 01</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 02 - 02</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 02 - 03</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 02 - 04</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 02 - 05</t>
+  </si>
+  <si>
+    <t>Luyện tập mảng 02 - 06</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%202%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%203%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%204%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%205%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%206%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2002.html</t>
   </si>
 </sst>
 </file>
@@ -728,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B64"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1195,6 +1231,54 @@
         <v>113</v>
       </c>
     </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86615DD1-6FE8-428E-91E3-333D85E1BA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545BECFA-F27C-4BAB-89D3-7D579B7AFA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -413,6 +413,18 @@
   </si>
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s12-mang/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%206%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20m%E1%BA%A3ng%2002.html</t>
+  </si>
+  <si>
+    <t>[Bài tập] Hàm kiểm tra số nguyên tố</t>
+  </si>
+  <si>
+    <t>[Bài tập] Chuyển đổi giữa feet và meters</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20H%C3%A0m%20ki%E1%BB%83m%20tra%20s%E1%BB%91%20nguy%C3%AAn%20t%E1%BB%91.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20Chuy%E1%BB%83n%20%C4%91%E1%BB%95i%20gi%E1%BB%AFa%20feet%20v%C3%A0%20meters.html</t>
   </si>
 </sst>
 </file>
@@ -764,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:B70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1279,6 +1291,22 @@
         <v>125</v>
       </c>
     </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545BECFA-F27C-4BAB-89D3-7D579B7AFA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E99D3AD-8168-48A1-AFB7-DA8C150BB5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -425,6 +425,33 @@
   </si>
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20Chuy%E1%BB%83n%20%C4%91%E1%BB%95i%20gi%E1%BB%AFa%20feet%20v%C3%A0%20meters.html</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 01 - 01</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 01 - 02</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 01 - 03</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 01 - 04</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 01 - 05</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%205%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%202%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%203%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2001.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%204%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2001.html</t>
   </si>
 </sst>
 </file>
@@ -776,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:B73"/>
+      <selection activeCell="B74" sqref="B74:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1307,6 +1334,46 @@
         <v>129</v>
       </c>
     </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E99D3AD-8168-48A1-AFB7-DA8C150BB5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D742A5-D5E2-4525-9F58-19CA99167D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -452,6 +452,60 @@
   </si>
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%204%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2001.html</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 02 - 01</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 02 - 02</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 02 - 03</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 02 - 04</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 02 - 05</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 02 - 06</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 02 - 07</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 02 - 08</t>
+  </si>
+  <si>
+    <t>Luyện tập tạo và sử dụng hàm 02 - 09</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%201%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%202%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%203%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%204%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%205%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%206%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%207%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%208%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2002.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%209%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2002.html</t>
   </si>
 </sst>
 </file>
@@ -803,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:B78"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1374,6 +1428,78 @@
         <v>135</v>
       </c>
     </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D742A5-D5E2-4525-9F58-19CA99167D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3C1137-C1F8-446C-B6EB-9B08B5292EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -506,6 +506,24 @@
   </si>
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s13-function/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%209%5D%20Luy%E1%BB%87n%20t%E1%BA%ADp%20t%E1%BA%A1o%20v%C3%A0%20s%E1%BB%AD%20d%E1%BB%A5ng%20h%C3%A0m%2002.html</t>
+  </si>
+  <si>
+    <t>[Bài tập] Xây dựng lớp mô tả hình chữ nhật</t>
+  </si>
+  <si>
+    <t>[Bài tập] Xây dựng lớp mô tả Temperature</t>
+  </si>
+  <si>
+    <t>[Bài tập] Xây dựng lớp mô tả điện thoại</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s16_lap_trinh_hdt/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20X%C3%A2y%20d%E1%BB%B1ng%20l%E1%BB%9Bp%20m%C3%B4%20t%E1%BA%A3%20h%C3%ACnh%20ch%E1%BB%AF%20nh%E1%BA%ADt.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s16_lap_trinh_hdt/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20X%C3%A2y%20d%E1%BB%B1ng%20l%E1%BB%9Bp%20m%C3%B4%20t%E1%BA%A3%20Temperature.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s16_lap_trinh_hdt/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20X%C3%A2y%20d%E1%BB%B1ng%20l%E1%BB%9Bp%20m%C3%B4%20t%E1%BA%A3%20%C4%91i%E1%BB%87n%20tho%E1%BA%A1i.html</t>
   </si>
 </sst>
 </file>
@@ -857,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:B88"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1500,6 +1518,30 @@
         <v>156</v>
       </c>
     </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DANH MUC BAI TAP.xlsx
+++ b/DANH MUC BAI TAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_CODE_GYM_MY_STUDY\c0523g1_nguyen_thanh_viet_module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3C1137-C1F8-446C-B6EB-9B08B5292EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7EF33F-DFC7-4BC6-9ECE-21BCADCB0F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0C70BF92-38C4-4A6C-B924-8C6078304EB2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="169">
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s03_pseudocode_flowchart/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20M%C3%B4%20t%E1%BA%A3%20thu%E1%BA%ADt%20to%C3%A1n%20t%C3%ADnh%20%C4%91i%E1%BB%83m%20trung%20b%C3%ACnh.jpg</t>
   </si>
@@ -524,6 +524,24 @@
   </si>
   <si>
     <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s16_lap_trinh_hdt/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20X%C3%A2y%20d%E1%BB%B1ng%20l%E1%BB%9Bp%20m%C3%B4%20t%E1%BA%A3%20%C4%91i%E1%BB%87n%20tho%E1%BA%A1i.html</t>
+  </si>
+  <si>
+    <t>[Bài tập] Game đơn giản - di chuyển đối tượng</t>
+  </si>
+  <si>
+    <t>[Bài tập] Phát triển ứng dụng nhỏ mô phỏng câu chuyện Adam và Eva</t>
+  </si>
+  <si>
+    <t>[Bài tập] Phát triển chương trình thể hiện sự tương tác giữa hai đối tượng: công tắc và bóng đèn</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s17_lap_trinh_hdt/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20Game%20%C4%91%C6%A1n%20gi%E1%BA%A3n%20-%20di%20chuy%E1%BB%83n%20%C4%91%E1%BB%91i%20t%C6%B0%E1%BB%A3ng.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s17_lap_trinh_hdt/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20Ph%C3%A1t%20tri%E1%BB%83n%20%E1%BB%A9ng%20d%E1%BB%A5ng%20nh%E1%BB%8F%20m%C3%B4%20ph%E1%BB%8Fng%20c%C3%A2u%20chuy%E1%BB%87n%20Adam%20v%C3%A0%20Eva.html</t>
+  </si>
+  <si>
+    <t>https://github.com/thanhviet05x1d/c0523g1_nguyen_thanh_viet_module1/blob/main/s17_lap_trinh_hdt/exercise/%5BB%C3%A0i%20t%E1%BA%ADp%5D%20Ph%C3%A1t%20tri%E1%BB%83n%20ch%C6%B0%C6%A1ng%20tr%C3%ACnh%20th%E1%BB%83%20hi%E1%BB%87n%20s%E1%BB%B1%20t%C6%B0%C6%A1ng%20t%C3%A1c%20gi%E1%BB%AFa%20hai%20%C4%91%E1%BB%91i%20t%C6%B0%E1%BB%A3ng%20c%C3%B4ng%20t%E1%BA%AFc%20v%C3%A0%20b%C3%B3ng%20%C4%91%C3%A8n.html</t>
   </si>
 </sst>
 </file>
@@ -875,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67AC6B5-FAE4-48DF-9576-83A1DC03DDF7}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90:B92"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1542,6 +1560,30 @@
         <v>162</v>
       </c>
     </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>165</v>
+      </c>
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
